--- a/Labs/Lab_2.2.4/data.xlsx
+++ b/Labs/Lab_2.2.4/data.xlsx
@@ -24,27 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>U_1</t>
-  </si>
-  <si>
-    <t>U_2</t>
   </si>
   <si>
     <t xml:space="preserve">Псеклиглас(снизу) </t>
   </si>
   <si>
     <t xml:space="preserve">Псеклиглас(сверху) </t>
-  </si>
-  <si>
-    <t>U_3</t>
-  </si>
-  <si>
-    <t>U_4</t>
   </si>
   <si>
     <t>Стекло(снизу)</t>
@@ -71,23 +59,47 @@
     <t>U_калиб</t>
   </si>
   <si>
-    <t>U_расст</t>
-  </si>
-  <si>
-    <t>осевая произовдная</t>
-  </si>
-  <si>
     <t>D, см</t>
   </si>
   <si>
-    <t xml:space="preserve">пересчитанные </t>
+    <t>U_1, мВ</t>
+  </si>
+  <si>
+    <t>U_2, мВ</t>
+  </si>
+  <si>
+    <t>U_3, мВ</t>
+  </si>
+  <si>
+    <t>U_4, мВ</t>
+  </si>
+  <si>
+    <t>dT_2/dT_1</t>
+  </si>
+  <si>
+    <t>x/x_э</t>
+  </si>
+  <si>
+    <t>x, Вт/(м*К)</t>
+  </si>
+  <si>
+    <t>l, см</t>
+  </si>
+  <si>
+    <t>U_расст, мВ</t>
+  </si>
+  <si>
+    <t>U, мВ</t>
+  </si>
+  <si>
+    <t>U_высоты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,16 +108,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -113,15 +145,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -137,6 +208,1329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$BD$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$BD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3030-4230-B2C3-598DDDCD2293}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261207967"/>
+        <c:axId val="261211711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261207967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261211711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261211711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261207967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30955</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="421141" cy="327141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738938" y="5276850"/>
+          <a:ext cx="421141" cy="327141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>t, s</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673454" cy="327141"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2852738" y="3076575"/>
+          <a:ext cx="673454" cy="327141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1"/>
+            <a:t>U,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1500" b="1" baseline="0"/>
+            <a:t> mV</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1500" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,277 +1796,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:BD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.86328125" customWidth="1"/>
+    <col min="15" max="15" width="13.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5">
+        <f xml:space="preserve"> (D2 - E2)/(B2-C2)</f>
+        <v>0.67415730337078639</v>
+      </c>
+      <c r="I2">
+        <f xml:space="preserve"> (D2/$L$4 - E2/$L$5)/(B2/$L$2-C2/$L$3)</f>
+        <v>0.67601381649833336</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="O2" s="5">
+        <f xml:space="preserve"> N2/ L2</f>
+        <v>1.1975308641975309</v>
+      </c>
+      <c r="P2" s="6">
+        <v>2.15</v>
+      </c>
+      <c r="Q2" s="5">
+        <f xml:space="preserve"> P2/L2</f>
+        <v>2.6543209876543208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H8" si="0" xml:space="preserve"> (D3 - E3)/(B3-C3)</f>
+        <v>0.77173913043478259</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="O3" s="5">
+        <f xml:space="preserve"> N3/ L3</f>
+        <v>1.1351351351351351</v>
+      </c>
+      <c r="P3" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="Q3" s="5">
+        <f xml:space="preserve"> P3/L3</f>
+        <v>1.6486486486486487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="G4" s="6">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.42735042735042739</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="O4" s="5">
+        <f xml:space="preserve"> N4/ L4</f>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="Q4" s="5">
+        <f xml:space="preserve"> P4/L4</f>
+        <v>1.2954545454545454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0312499999999991</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.92</v>
+      </c>
+      <c r="O5" s="5">
+        <f xml:space="preserve"> N5/ L5</f>
+        <v>1.0823529411764707</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="Q5" s="5">
+        <f xml:space="preserve"> P5/L5</f>
+        <v>0.10588235294117647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="G6" s="6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60747663551401865</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.03</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0864197530864197</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1">
+        <v>0.67601381649833336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
+      <c r="B8" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="G8" s="6">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0147058823529411</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1">
+        <f>1/0.763670489054304</f>
+        <v>1.3094652920768957</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0.81</v>
-      </c>
-      <c r="J2">
-        <v>0.98</v>
-      </c>
-      <c r="K2">
-        <f xml:space="preserve"> J2/ I2</f>
-        <v>1.2098765432098764</v>
-      </c>
-      <c r="L2">
-        <v>2.17</v>
-      </c>
-      <c r="M2">
-        <f xml:space="preserve"> L2/I2</f>
-        <v>2.6790123456790123</v>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="K9" s="1">
+        <v>0.40942649687235327</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1.84</v>
-      </c>
-      <c r="C3">
-        <v>0.95</v>
-      </c>
-      <c r="D3">
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <v>0.35</v>
-      </c>
-      <c r="F3">
-        <v>0.52</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0.74</v>
-      </c>
-      <c r="J3">
-        <v>0.86</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K5" si="0" xml:space="preserve"> J3/ I3</f>
-        <v>1.1621621621621621</v>
-      </c>
-      <c r="L3">
-        <v>1.25</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M5" si="1" xml:space="preserve"> L3/I3</f>
-        <v>1.6891891891891893</v>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="K10" s="1">
+        <v>4.6896877695359738</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1.68</v>
-      </c>
-      <c r="C4">
-        <v>0.76</v>
-      </c>
-      <c r="D4">
-        <v>0.89</v>
-      </c>
-      <c r="E4">
-        <v>0.18</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>0.88</v>
-      </c>
-      <c r="J4">
-        <v>0.96</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>1.0909090909090908</v>
-      </c>
-      <c r="L4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>1.3068181818181817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1.84</v>
-      </c>
-      <c r="C5">
-        <v>0.67</v>
-      </c>
-      <c r="D5">
-        <v>0.72</v>
-      </c>
-      <c r="E5">
-        <v>0.22</v>
-      </c>
-      <c r="F5">
-        <v>0.18</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5">
-        <v>0.85</v>
-      </c>
-      <c r="J5">
-        <v>0.91</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>1.0705882352941176</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>0.11764705882352942</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1.71</v>
-      </c>
-      <c r="C6">
-        <v>1.39</v>
-      </c>
-      <c r="D6">
-        <v>1.24</v>
-      </c>
-      <c r="E6">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1.81</v>
-      </c>
-      <c r="C7">
-        <v>0.74</v>
-      </c>
-      <c r="D7">
-        <v>0.74</v>
-      </c>
-      <c r="E7">
-        <v>0.09</v>
-      </c>
-      <c r="F7">
-        <v>0.31</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1.74</v>
-      </c>
-      <c r="C8">
-        <v>1.33</v>
-      </c>
-      <c r="D8">
-        <v>1.02</v>
-      </c>
-      <c r="E8">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1.68</v>
-      </c>
-      <c r="C9">
-        <v>0.85</v>
-      </c>
-      <c r="D9">
-        <v>0.85</v>
-      </c>
-      <c r="E9">
-        <v>0.18</v>
-      </c>
-      <c r="F9">
-        <v>0.39</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>1</v>
       </c>
@@ -685,10 +2168,13 @@
       <c r="E11">
         <v>4</v>
       </c>
+      <c r="K11" s="1">
+        <v>0.59537165775401091</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1.1000000000000001</v>
@@ -702,8 +2188,11 @@
       <c r="E12">
         <v>4</v>
       </c>
+      <c r="K12" s="1">
+        <v>2.8342101047396029</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -719,8 +2208,493 @@
       <c r="E13">
         <v>0.91</v>
       </c>
+      <c r="K13" s="1">
+        <v>1.0187832868718205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>B15+1</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:BD15" si="1">C15+1</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>7.1</v>
+      </c>
+      <c r="C16">
+        <v>6.8</v>
+      </c>
+      <c r="D16">
+        <v>6.4</v>
+      </c>
+      <c r="E16">
+        <v>6.2</v>
+      </c>
+      <c r="F16">
+        <v>5.9</v>
+      </c>
+      <c r="G16">
+        <v>5.7</v>
+      </c>
+      <c r="H16">
+        <v>5.6</v>
+      </c>
+      <c r="I16">
+        <v>5.5</v>
+      </c>
+      <c r="J16">
+        <v>5.3</v>
+      </c>
+      <c r="K16">
+        <v>5.2</v>
+      </c>
+      <c r="L16">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P16">
+        <v>4.8</v>
+      </c>
+      <c r="Q16">
+        <v>4.8</v>
+      </c>
+      <c r="R16">
+        <v>4.8</v>
+      </c>
+      <c r="S16">
+        <v>4.7</v>
+      </c>
+      <c r="T16">
+        <v>4.7</v>
+      </c>
+      <c r="U16">
+        <v>4.7</v>
+      </c>
+      <c r="V16">
+        <v>4.7</v>
+      </c>
+      <c r="W16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA16">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AB16">
+        <v>4.5</v>
+      </c>
+      <c r="AC16">
+        <v>4.5</v>
+      </c>
+      <c r="AD16">
+        <v>4.5</v>
+      </c>
+      <c r="AE16">
+        <v>4.5</v>
+      </c>
+      <c r="AF16">
+        <v>4.5</v>
+      </c>
+      <c r="AG16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AI16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AK16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AL16">
+        <v>4.3</v>
+      </c>
+      <c r="AM16">
+        <v>4.3</v>
+      </c>
+      <c r="AN16">
+        <v>4.3</v>
+      </c>
+      <c r="AO16">
+        <v>4.3</v>
+      </c>
+      <c r="AP16">
+        <v>4.3</v>
+      </c>
+      <c r="AQ16">
+        <v>4.2</v>
+      </c>
+      <c r="AR16">
+        <v>4.2</v>
+      </c>
+      <c r="AS16">
+        <v>4.2</v>
+      </c>
+      <c r="AT16">
+        <v>4.2</v>
+      </c>
+      <c r="AU16">
+        <v>4.2</v>
+      </c>
+      <c r="AV16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AW16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AX16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AY16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AZ16">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>4</v>
+      </c>
+      <c r="BC16">
+        <v>4</v>
+      </c>
+      <c r="BD16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <f xml:space="preserve"> 1/(H2*F8/F2)</f>
+        <v>1.9777777777777781</v>
+      </c>
+      <c r="C36" s="5">
+        <f>B36 * 0.17</f>
+        <v>0.33622222222222231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="5">
+        <f>1/(H3*F8/F2)</f>
+        <v>1.727699530516432</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" ref="C37:C42" si="2">B37 * 0.17</f>
+        <v>0.29370892018779349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5">
+        <f xml:space="preserve"> 1/(H4*F4/F8)</f>
+        <v>5.0699999999999994</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <f>(H5*F8/F4)</f>
+        <v>6.5677083333333321</v>
+      </c>
+      <c r="C39" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1165104166666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5">
+        <f xml:space="preserve"> 1/(H6*F6/F8)</f>
+        <v>2.0709677419354842</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35206451612903233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5">
+        <f xml:space="preserve"> H7*F8/F4</f>
+        <v>2.3539094650205761</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40016460905349799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>